--- a/biology/Botanique/Asarum_sieboldii/Asarum_sieboldii.xlsx
+++ b/biology/Botanique/Asarum_sieboldii/Asarum_sieboldii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asarum sieboldii, ou Asaret de Siebold, est une espèce de plante herbacée vivace de la famille des Aristolochiaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Asaret de Siebold ou « Oreille d'Homme », monde francophone[2] :
-Usubasaishin, Japon[3],[4] ;
-Siebold's wild ginger ou simplement wild ginger, monde anglophone[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Asaret de Siebold ou « Oreille d'Homme », monde francophone :
+Usubasaishin, Japon, ;
+Siebold's wild ginger ou simplement wild ginger, monde anglophone.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anemone debilis peuple les espaces forestiers de montagnes de l'Europe, des États-Unis et de l'Asie de l'Est[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anemone debilis peuple les espaces forestiers de montagnes de l'Europe, des États-Unis et de l'Asie de l'Est,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asarum sieboldii est utilisée comme plante officinale en médecine traditionnelle chinoise et européenne[5],[3],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asarum sieboldii est utilisée comme plante officinale en médecine traditionnelle chinoise et européenne.
 </t>
         </is>
       </c>
@@ -605,21 +623,23 @@
           <t>Liste des sous-espèces, des formes et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 août 2017)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 août 2017) :
 variété Asarum sieboldii var. dimidiatum.
-Selon NCBI  (12 août 2017)[7] :
+Selon NCBI  (12 août 2017) :
 forme Asarum sieboldii' f. 'seoulense ;
 variété Asarum sieboldii var. cornutum ;
 variété Asarum sieboldii var. seoulense ;
 variété Asarum sieboldii var. sieboldii ;
 forme Asarum sieboldii f. maculatum ;
 forme Asarum sieboldii f. sieboldii.
-Selon The Plant List            (12 août 2017)[1] :
+Selon The Plant List            (12 août 2017) :
 variété Asarum sieboldii var. dimidiatum (F.Maek.) T.Sugaw. ;
 variété Asarum sieboldii var. versicolor Yamaki.
-Selon Tropicos                                           (12 août 2017)[8] :
+Selon Tropicos                                           (12 août 2017) :
 sous-espèce Asarum sieboldii subsp. heteropoides ;
 variété Asarum sieboldii var. cornutum Y.N. Lee ;
 variété Asarum sieboldii var. dimidiatum (F. Maek.) T.Sugaw. ;
